--- a/samples/Nexsus1_schema.xlsx
+++ b/samples/Nexsus1_schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KasunJ\MCP\Nexsus1\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516BC33B-780F-4DDB-9130-6BCECBF213BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA5B589-B78D-4A54-B23F-4CEE138146EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{19F724C7-1CE4-44CD-BB94-1EB0E2213F97}"/>
   </bookViews>
@@ -185,11 +185,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,7 +547,7 @@
   <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,463 +597,463 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>104</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>105</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>106</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>107</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>108</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>109</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F10" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>110</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>111</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>201</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>202</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>203</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>204</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>201</v>
+      </c>
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>205</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>206</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>301</v>
+      </c>
+      <c r="B19">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>302</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>101</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>102</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>103</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>104</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="F20" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="2">
-        <v>2</v>
-      </c>
-      <c r="J16" s="2">
-        <v>201</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>105</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>106</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>201</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>202</v>
-      </c>
-      <c r="B20" s="2">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" t="s">
         <v>30</v>
       </c>
     </row>

--- a/samples/Nexsus1_schema.xlsx
+++ b/samples/Nexsus1_schema.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Schema" sheetId="1" r:id="rId1"/>
+    <sheet name="Instance_Config" sheetId="2" r:id="rId2"/>
+    <sheet name="Model_Metadata" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">[1]Sheet1!$A$1:$K$47</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -397,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -425,25 +430,52 @@
         <v>Stored</v>
       </c>
       <c r="H1" t="str">
-        <v>__EMPTY_12</v>
+        <v xml:space="preserve"> FK location field model</v>
       </c>
       <c r="I1" t="str">
-        <v>__EMPTY_13</v>
+        <v xml:space="preserve"> FK location field model id</v>
       </c>
       <c r="J1" t="str">
-        <v>__EMPTY_14</v>
+        <v xml:space="preserve"> FK location record Id</v>
       </c>
       <c r="K1" t="str">
-        <v xml:space="preserve"> FK location field model</v>
+        <v xml:space="preserve"> Qdrant ID for FK</v>
       </c>
       <c r="L1" t="str">
-        <v xml:space="preserve"> FK location field model id</v>
+        <v>Field_Knowledge</v>
       </c>
       <c r="M1" t="str">
-        <v xml:space="preserve"> FK location record Id</v>
+        <v>Valid_Values</v>
       </c>
       <c r="N1" t="str">
-        <v xml:space="preserve"> Qdrant ID for FK</v>
+        <v>Data_Format</v>
+      </c>
+      <c r="O1" t="str">
+        <v>Calculation_Formula</v>
+      </c>
+      <c r="P1" t="str">
+        <v>Validation_Rules</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>LLM_Usage_Notes</v>
+      </c>
+      <c r="R1" t="str">
+        <v>Field_Knowledge</v>
+      </c>
+      <c r="S1" t="str">
+        <v>Valid_Values</v>
+      </c>
+      <c r="T1" t="str">
+        <v>Data_Format</v>
+      </c>
+      <c r="U1" t="str">
+        <v>Calculation_Formula</v>
+      </c>
+      <c r="V1" t="str">
+        <v>Validation_Rules</v>
+      </c>
+      <c r="W1" t="str">
+        <v>LLM_Usage_Notes</v>
       </c>
     </row>
     <row r="2">
@@ -468,6 +500,36 @@
       <c r="G2" t="str">
         <v>Yes</v>
       </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <v/>
+      </c>
+      <c r="J2" t="str">
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <v/>
+      </c>
+      <c r="L2" t="str">
+        <v/>
+      </c>
+      <c r="M2" t="str">
+        <v/>
+      </c>
+      <c r="N2" t="str">
+        <v/>
+      </c>
+      <c r="O2" t="str">
+        <v/>
+      </c>
+      <c r="P2" t="str">
+        <v/>
+      </c>
+      <c r="Q2" t="str">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -492,13 +554,34 @@
         <v>Yes</v>
       </c>
       <c r="H3" t="str">
-        <v xml:space="preserve"> FK location record Id - 5168</v>
+        <v/>
       </c>
       <c r="I3" t="str">
-        <v xml:space="preserve"> Qdrant ID for FK - 00000003-0298-0000-0000-000000005168</v>
+        <v/>
       </c>
       <c r="J3" t="str">
-        <v xml:space="preserve"> Stored - Yes</v>
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <v/>
+      </c>
+      <c r="M3" t="str">
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <v/>
+      </c>
+      <c r="O3" t="str">
+        <v/>
+      </c>
+      <c r="P3" t="str">
+        <v/>
+      </c>
+      <c r="Q3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -523,6 +606,36 @@
       <c r="G4" t="str">
         <v>Yes</v>
       </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <v/>
+      </c>
+      <c r="P4" t="str">
+        <v/>
+      </c>
+      <c r="Q4" t="str">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -546,6 +659,36 @@
       <c r="G5" t="str">
         <v>Yes</v>
       </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <v/>
+      </c>
+      <c r="O5" t="str">
+        <v/>
+      </c>
+      <c r="P5" t="str">
+        <v/>
+      </c>
+      <c r="Q5" t="str">
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -569,6 +712,36 @@
       <c r="G6" t="str">
         <v>Yes</v>
       </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <v/>
+      </c>
+      <c r="M6" t="str">
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <v/>
+      </c>
+      <c r="O6" t="str">
+        <v/>
+      </c>
+      <c r="P6" t="str">
+        <v/>
+      </c>
+      <c r="Q6" t="str">
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -592,6 +765,36 @@
       <c r="G7" t="str">
         <v>Yes</v>
       </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <v/>
+      </c>
+      <c r="O7" t="str">
+        <v/>
+      </c>
+      <c r="P7" t="str">
+        <v/>
+      </c>
+      <c r="Q7" t="str">
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -615,6 +818,36 @@
       <c r="G8" t="str">
         <v>Yes</v>
       </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <v/>
+      </c>
+      <c r="P8" t="str">
+        <v/>
+      </c>
+      <c r="Q8" t="str">
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -638,6 +871,36 @@
       <c r="G9" t="str">
         <v>Yes</v>
       </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <v/>
+      </c>
+      <c r="M9" t="str">
+        <v/>
+      </c>
+      <c r="N9" t="str">
+        <v/>
+      </c>
+      <c r="O9" t="str">
+        <v/>
+      </c>
+      <c r="P9" t="str">
+        <v/>
+      </c>
+      <c r="Q9" t="str">
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -661,6 +924,36 @@
       <c r="G10" t="str">
         <v>Yes</v>
       </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <v/>
+      </c>
+      <c r="O10" t="str">
+        <v/>
+      </c>
+      <c r="P10" t="str">
+        <v/>
+      </c>
+      <c r="Q10" t="str">
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -684,6 +977,36 @@
       <c r="G11" t="str">
         <v>Yes</v>
       </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <v/>
+      </c>
+      <c r="M11" t="str">
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <v/>
+      </c>
+      <c r="O11" t="str">
+        <v/>
+      </c>
+      <c r="P11" t="str">
+        <v/>
+      </c>
+      <c r="Q11" t="str">
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -707,6 +1030,36 @@
       <c r="G12" t="str">
         <v>Yes</v>
       </c>
+      <c r="H12" t="str">
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <v/>
+      </c>
+      <c r="M12" t="str">
+        <v/>
+      </c>
+      <c r="N12" t="str">
+        <v/>
+      </c>
+      <c r="O12" t="str">
+        <v/>
+      </c>
+      <c r="P12" t="str">
+        <v/>
+      </c>
+      <c r="Q12" t="str">
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -719,16 +1072,34 @@
         <v>id</v>
       </c>
       <c r="D13" t="str">
-        <v>ID</v>
+        <v>Gllink</v>
       </c>
       <c r="E13" t="str">
         <v>integer</v>
       </c>
       <c r="F13" t="str">
-        <v>customer</v>
+        <v>master</v>
       </c>
       <c r="G13" t="str">
         <v>Yes</v>
+      </c>
+      <c r="L13" t="str">
+        <v>Unique GL account code identifier</v>
+      </c>
+      <c r="M13" t="str">
+        <v>10000-99999</v>
+      </c>
+      <c r="N13" t="str">
+        <v>5-digit integer</v>
+      </c>
+      <c r="O13" t="str">
+        <v/>
+      </c>
+      <c r="P13" t="str">
+        <v>Must be unique, not null</v>
+      </c>
+      <c r="Q13" t="str">
+        <v>Use for exact account lookups. This is the primary key.</v>
       </c>
     </row>
     <row r="14">
@@ -739,19 +1110,37 @@
         <v>2</v>
       </c>
       <c r="C14" t="str">
-        <v>name</v>
+        <v>Gllinkname</v>
       </c>
       <c r="D14" t="str">
-        <v>Customer Name</v>
+        <v>Gllinkname</v>
       </c>
       <c r="E14" t="str">
         <v>char</v>
       </c>
       <c r="F14" t="str">
-        <v>customer</v>
+        <v>master</v>
       </c>
       <c r="G14" t="str">
         <v>Yes</v>
+      </c>
+      <c r="L14" t="str">
+        <v>Full account name including code prefix</v>
+      </c>
+      <c r="M14" t="str">
+        <v/>
+      </c>
+      <c r="N14" t="str">
+        <v>"NNNNN Description" format</v>
+      </c>
+      <c r="O14" t="str">
+        <v/>
+      </c>
+      <c r="P14" t="str">
+        <v/>
+      </c>
+      <c r="Q14" t="str">
+        <v>Best field for semantic search. Contains both code and description.</v>
       </c>
     </row>
     <row r="15">
@@ -762,19 +1151,37 @@
         <v>2</v>
       </c>
       <c r="C15" t="str">
-        <v>email</v>
+        <v>Type2</v>
       </c>
       <c r="D15" t="str">
-        <v>Email</v>
+        <v>Type2</v>
       </c>
       <c r="E15" t="str">
         <v>char</v>
       </c>
       <c r="F15" t="str">
-        <v>customer</v>
+        <v>master</v>
       </c>
       <c r="G15" t="str">
         <v>Yes</v>
+      </c>
+      <c r="L15" t="str">
+        <v>Statement type classification</v>
+      </c>
+      <c r="M15" t="str">
+        <v>BS|PL</v>
+      </c>
+      <c r="N15" t="str">
+        <v>2-character code</v>
+      </c>
+      <c r="O15" t="str">
+        <v/>
+      </c>
+      <c r="P15" t="str">
+        <v>Must be BS or PL</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>BS=Balance Sheet, PL=Profit &amp; Loss. Use to filter by financial statement.</v>
       </c>
     </row>
     <row r="16">
@@ -785,31 +1192,37 @@
         <v>2</v>
       </c>
       <c r="C16" t="str">
-        <v>country_id</v>
+        <v>F1</v>
       </c>
       <c r="D16" t="str">
-        <v>Country</v>
+        <v>F1</v>
       </c>
       <c r="E16" t="str">
-        <v>many2one</v>
+        <v>char</v>
       </c>
       <c r="F16" t="str">
-        <v>customer</v>
+        <v>master</v>
       </c>
       <c r="G16" t="str">
         <v>Yes</v>
       </c>
-      <c r="K16" t="str">
-        <v>country</v>
-      </c>
-      <c r="L16">
-        <v>3</v>
-      </c>
-      <c r="M16">
-        <v>201</v>
+      <c r="L16" t="str">
+        <v>Level 1 P&amp;L classification code</v>
+      </c>
+      <c r="M16" t="str">
+        <v>REV|VCOS|FCOS|OH|CASH|OCA|FA|INT|CL|LTL|EQ</v>
       </c>
       <c r="N16" t="str">
-        <v>00000003-0003-0000-0000-000000000201</v>
+        <v>2-4 character code</v>
+      </c>
+      <c r="O16" t="str">
+        <v/>
+      </c>
+      <c r="P16" t="str">
+        <v/>
+      </c>
+      <c r="Q16" t="str">
+        <v>Primary P&amp;L grouping. REV=Revenue, VCOS=Variable Costs, FCOS=Fixed Costs, OH=Overhead. BS codes: CASH, OCA, FA, INT, CL, LTL, EQ.</v>
       </c>
     </row>
     <row r="17">
@@ -820,19 +1233,37 @@
         <v>2</v>
       </c>
       <c r="C17" t="str">
-        <v>status</v>
+        <v>F1_des</v>
       </c>
       <c r="D17" t="str">
-        <v>Status</v>
+        <v>F1_des</v>
       </c>
       <c r="E17" t="str">
         <v>char</v>
       </c>
       <c r="F17" t="str">
-        <v>customer</v>
+        <v>master</v>
       </c>
       <c r="G17" t="str">
         <v>Yes</v>
+      </c>
+      <c r="L17" t="str">
+        <v>Level 1 classification description</v>
+      </c>
+      <c r="M17" t="str">
+        <v>Cash on Hand|Other Current Assets|Fixed Assets|...</v>
+      </c>
+      <c r="N17" t="str">
+        <v>Text description</v>
+      </c>
+      <c r="O17" t="str">
+        <v/>
+      </c>
+      <c r="P17" t="str">
+        <v/>
+      </c>
+      <c r="Q17" t="str">
+        <v>Human-readable version of F1 code. Use in reports.</v>
       </c>
     </row>
     <row r="18">
@@ -843,70 +1274,2200 @@
         <v>2</v>
       </c>
       <c r="C18" t="str">
-        <v>created_date</v>
+        <v>F2</v>
       </c>
       <c r="D18" t="str">
-        <v>Created Date</v>
+        <v>F2</v>
       </c>
       <c r="E18" t="str">
-        <v>datetime</v>
+        <v>char</v>
       </c>
       <c r="F18" t="str">
-        <v>customer</v>
+        <v>master</v>
       </c>
       <c r="G18" t="str">
         <v>Yes</v>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <v/>
+      </c>
+      <c r="M18" t="str">
+        <v/>
+      </c>
+      <c r="N18" t="str">
+        <v/>
+      </c>
+      <c r="O18" t="str">
+        <v/>
+      </c>
+      <c r="P18" t="str">
+        <v/>
+      </c>
+      <c r="Q18" t="str">
+        <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>301</v>
+        <v>207</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="str">
-        <v>id</v>
+        <v>F2No</v>
       </c>
       <c r="D19" t="str">
-        <v>ID</v>
+        <v>F2No</v>
       </c>
       <c r="E19" t="str">
-        <v>integer</v>
+        <v>float</v>
       </c>
       <c r="F19" t="str">
-        <v>country</v>
+        <v>master</v>
       </c>
       <c r="G19" t="str">
         <v>Yes</v>
+      </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <v/>
+      </c>
+      <c r="M19" t="str">
+        <v/>
+      </c>
+      <c r="N19" t="str">
+        <v/>
+      </c>
+      <c r="O19" t="str">
+        <v/>
+      </c>
+      <c r="P19" t="str">
+        <v/>
+      </c>
+      <c r="Q19" t="str">
+        <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>302</v>
+        <v>208</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" t="str">
-        <v>name</v>
+        <v>F2.1</v>
       </c>
       <c r="D20" t="str">
-        <v>name</v>
+        <v>F2.1</v>
       </c>
       <c r="E20" t="str">
         <v>char</v>
       </c>
       <c r="F20" t="str">
-        <v>country</v>
+        <v>master</v>
       </c>
       <c r="G20" t="str">
         <v>Yes</v>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <v/>
+      </c>
+      <c r="M20" t="str">
+        <v/>
+      </c>
+      <c r="N20" t="str">
+        <v/>
+      </c>
+      <c r="O20" t="str">
+        <v/>
+      </c>
+      <c r="P20" t="str">
+        <v/>
+      </c>
+      <c r="Q20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>209</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="str">
+        <v>F2.1No</v>
+      </c>
+      <c r="D21" t="str">
+        <v>F2.1No</v>
+      </c>
+      <c r="E21" t="str">
+        <v>float</v>
+      </c>
+      <c r="F21" t="str">
+        <v>master</v>
+      </c>
+      <c r="G21" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <v/>
+      </c>
+      <c r="L21" t="str">
+        <v/>
+      </c>
+      <c r="M21" t="str">
+        <v/>
+      </c>
+      <c r="N21" t="str">
+        <v/>
+      </c>
+      <c r="O21" t="str">
+        <v/>
+      </c>
+      <c r="P21" t="str">
+        <v/>
+      </c>
+      <c r="Q21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>210</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="str">
+        <v>F3</v>
+      </c>
+      <c r="D22" t="str">
+        <v>F3</v>
+      </c>
+      <c r="E22" t="str">
+        <v>char</v>
+      </c>
+      <c r="F22" t="str">
+        <v>master</v>
+      </c>
+      <c r="G22" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <v/>
+      </c>
+      <c r="L22" t="str">
+        <v/>
+      </c>
+      <c r="M22" t="str">
+        <v/>
+      </c>
+      <c r="N22" t="str">
+        <v/>
+      </c>
+      <c r="O22" t="str">
+        <v/>
+      </c>
+      <c r="P22" t="str">
+        <v/>
+      </c>
+      <c r="Q22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>211</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="str">
+        <v>F3No</v>
+      </c>
+      <c r="D23" t="str">
+        <v>F3No</v>
+      </c>
+      <c r="E23" t="str">
+        <v>float</v>
+      </c>
+      <c r="F23" t="str">
+        <v>master</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H23" t="str">
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v/>
+      </c>
+      <c r="L23" t="str">
+        <v/>
+      </c>
+      <c r="M23" t="str">
+        <v/>
+      </c>
+      <c r="N23" t="str">
+        <v/>
+      </c>
+      <c r="O23" t="str">
+        <v/>
+      </c>
+      <c r="P23" t="str">
+        <v/>
+      </c>
+      <c r="Q23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>212</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Revenue</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Revenue</v>
+      </c>
+      <c r="E24" t="str">
+        <v>char</v>
+      </c>
+      <c r="F24" t="str">
+        <v>master</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="L24" t="str">
+        <v>Business segment classification</v>
+      </c>
+      <c r="M24" t="str">
+        <v>Product|Installation|Freight|Other</v>
+      </c>
+      <c r="N24" t="str">
+        <v>Text</v>
+      </c>
+      <c r="O24" t="str">
+        <v/>
+      </c>
+      <c r="P24" t="str">
+        <v/>
+      </c>
+      <c r="Q24" t="str">
+        <v>Use for segment analysis. Product=manufacturing, Installation=services, Freight=logistics.</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>213</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Entity</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Entity</v>
+      </c>
+      <c r="E25" t="str">
+        <v>char</v>
+      </c>
+      <c r="F25" t="str">
+        <v>master</v>
+      </c>
+      <c r="G25" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="L25" t="str">
+        <v>EBITA inclusion flag</v>
+      </c>
+      <c r="M25" t="str">
+        <v>Y|N</v>
+      </c>
+      <c r="N25" t="str">
+        <v>Y/N flag</v>
+      </c>
+      <c r="O25" t="str">
+        <v/>
+      </c>
+      <c r="P25" t="str">
+        <v/>
+      </c>
+      <c r="Q25" t="str">
+        <v>Y=include in EBITA calculations. Filter EBITA="Y" for EBITA reports.</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>214</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="str">
+        <v>EBITA</v>
+      </c>
+      <c r="D26" t="str">
+        <v>EBITA</v>
+      </c>
+      <c r="E26" t="str">
+        <v>char</v>
+      </c>
+      <c r="F26" t="str">
+        <v>master</v>
+      </c>
+      <c r="G26" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H26" t="str">
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <v/>
+      </c>
+      <c r="J26" t="str">
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <v/>
+      </c>
+      <c r="L26" t="str">
+        <v/>
+      </c>
+      <c r="M26" t="str">
+        <v/>
+      </c>
+      <c r="N26" t="str">
+        <v/>
+      </c>
+      <c r="O26" t="str">
+        <v/>
+      </c>
+      <c r="P26" t="str">
+        <v/>
+      </c>
+      <c r="Q26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>215</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="str">
+        <v>DCFL1</v>
+      </c>
+      <c r="D27" t="str">
+        <v>DCFL1</v>
+      </c>
+      <c r="E27" t="str">
+        <v>char</v>
+      </c>
+      <c r="F27" t="str">
+        <v>master</v>
+      </c>
+      <c r="G27" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H27" t="str">
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <v/>
+      </c>
+      <c r="J27" t="str">
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <v/>
+      </c>
+      <c r="L27" t="str">
+        <v/>
+      </c>
+      <c r="M27" t="str">
+        <v/>
+      </c>
+      <c r="N27" t="str">
+        <v/>
+      </c>
+      <c r="O27" t="str">
+        <v/>
+      </c>
+      <c r="P27" t="str">
+        <v/>
+      </c>
+      <c r="Q27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>216</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="str">
+        <v>DCFL2</v>
+      </c>
+      <c r="D28" t="str">
+        <v>DCFL2</v>
+      </c>
+      <c r="E28" t="str">
+        <v>char</v>
+      </c>
+      <c r="F28" t="str">
+        <v>master</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H28" t="str">
+        <v/>
+      </c>
+      <c r="I28" t="str">
+        <v/>
+      </c>
+      <c r="J28" t="str">
+        <v/>
+      </c>
+      <c r="K28" t="str">
+        <v/>
+      </c>
+      <c r="L28" t="str">
+        <v/>
+      </c>
+      <c r="M28" t="str">
+        <v/>
+      </c>
+      <c r="N28" t="str">
+        <v/>
+      </c>
+      <c r="O28" t="str">
+        <v/>
+      </c>
+      <c r="P28" t="str">
+        <v/>
+      </c>
+      <c r="Q28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>217</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="str">
+        <v>DCFL3</v>
+      </c>
+      <c r="D29" t="str">
+        <v>DCFL3</v>
+      </c>
+      <c r="E29" t="str">
+        <v>char</v>
+      </c>
+      <c r="F29" t="str">
+        <v>master</v>
+      </c>
+      <c r="G29" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H29" t="str">
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <v/>
+      </c>
+      <c r="J29" t="str">
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <v/>
+      </c>
+      <c r="L29" t="str">
+        <v/>
+      </c>
+      <c r="M29" t="str">
+        <v/>
+      </c>
+      <c r="N29" t="str">
+        <v/>
+      </c>
+      <c r="O29" t="str">
+        <v/>
+      </c>
+      <c r="P29" t="str">
+        <v/>
+      </c>
+      <c r="Q29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>218</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="str">
+        <v>DCFL2No</v>
+      </c>
+      <c r="D30" t="str">
+        <v>DCFL2No</v>
+      </c>
+      <c r="E30" t="str">
+        <v>float</v>
+      </c>
+      <c r="F30" t="str">
+        <v>master</v>
+      </c>
+      <c r="G30" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H30" t="str">
+        <v/>
+      </c>
+      <c r="I30" t="str">
+        <v/>
+      </c>
+      <c r="J30" t="str">
+        <v/>
+      </c>
+      <c r="K30" t="str">
+        <v/>
+      </c>
+      <c r="L30" t="str">
+        <v/>
+      </c>
+      <c r="M30" t="str">
+        <v/>
+      </c>
+      <c r="N30" t="str">
+        <v/>
+      </c>
+      <c r="O30" t="str">
+        <v/>
+      </c>
+      <c r="P30" t="str">
+        <v/>
+      </c>
+      <c r="Q30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>219</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="str">
+        <v>DCFL3No</v>
+      </c>
+      <c r="D31" t="str">
+        <v>DCFL3No</v>
+      </c>
+      <c r="E31" t="str">
+        <v>float</v>
+      </c>
+      <c r="F31" t="str">
+        <v>master</v>
+      </c>
+      <c r="G31" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H31" t="str">
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <v/>
+      </c>
+      <c r="J31" t="str">
+        <v/>
+      </c>
+      <c r="K31" t="str">
+        <v/>
+      </c>
+      <c r="L31" t="str">
+        <v/>
+      </c>
+      <c r="M31" t="str">
+        <v/>
+      </c>
+      <c r="N31" t="str">
+        <v/>
+      </c>
+      <c r="O31" t="str">
+        <v/>
+      </c>
+      <c r="P31" t="str">
+        <v/>
+      </c>
+      <c r="Q31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>220</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Standard costing</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Standard costing</v>
+      </c>
+      <c r="E32" t="str">
+        <v>char</v>
+      </c>
+      <c r="F32" t="str">
+        <v>master</v>
+      </c>
+      <c r="G32" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H32" t="str">
+        <v/>
+      </c>
+      <c r="I32" t="str">
+        <v/>
+      </c>
+      <c r="J32" t="str">
+        <v/>
+      </c>
+      <c r="K32" t="str">
+        <v/>
+      </c>
+      <c r="L32" t="str">
+        <v/>
+      </c>
+      <c r="M32" t="str">
+        <v/>
+      </c>
+      <c r="N32" t="str">
+        <v/>
+      </c>
+      <c r="O32" t="str">
+        <v/>
+      </c>
+      <c r="P32" t="str">
+        <v/>
+      </c>
+      <c r="Q32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>221</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Fixed</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Fixed</v>
+      </c>
+      <c r="E33" t="str">
+        <v>char</v>
+      </c>
+      <c r="F33" t="str">
+        <v>master</v>
+      </c>
+      <c r="G33" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H33" t="str">
+        <v/>
+      </c>
+      <c r="I33" t="str">
+        <v/>
+      </c>
+      <c r="J33" t="str">
+        <v/>
+      </c>
+      <c r="K33" t="str">
+        <v/>
+      </c>
+      <c r="L33" t="str">
+        <v/>
+      </c>
+      <c r="M33" t="str">
+        <v/>
+      </c>
+      <c r="N33" t="str">
+        <v/>
+      </c>
+      <c r="O33" t="str">
+        <v/>
+      </c>
+      <c r="P33" t="str">
+        <v/>
+      </c>
+      <c r="Q33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>222</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Variable</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Variable</v>
+      </c>
+      <c r="E34" t="str">
+        <v>char</v>
+      </c>
+      <c r="F34" t="str">
+        <v>master</v>
+      </c>
+      <c r="G34" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H34" t="str">
+        <v/>
+      </c>
+      <c r="I34" t="str">
+        <v/>
+      </c>
+      <c r="J34" t="str">
+        <v/>
+      </c>
+      <c r="K34" t="str">
+        <v/>
+      </c>
+      <c r="L34" t="str">
+        <v/>
+      </c>
+      <c r="M34" t="str">
+        <v/>
+      </c>
+      <c r="N34" t="str">
+        <v/>
+      </c>
+      <c r="O34" t="str">
+        <v/>
+      </c>
+      <c r="P34" t="str">
+        <v/>
+      </c>
+      <c r="Q34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>223</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Q1</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Q1</v>
+      </c>
+      <c r="E35" t="str">
+        <v>char</v>
+      </c>
+      <c r="F35" t="str">
+        <v>master</v>
+      </c>
+      <c r="G35" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H35" t="str">
+        <v/>
+      </c>
+      <c r="I35" t="str">
+        <v/>
+      </c>
+      <c r="J35" t="str">
+        <v/>
+      </c>
+      <c r="K35" t="str">
+        <v/>
+      </c>
+      <c r="L35" t="str">
+        <v/>
+      </c>
+      <c r="M35" t="str">
+        <v/>
+      </c>
+      <c r="N35" t="str">
+        <v/>
+      </c>
+      <c r="O35" t="str">
+        <v/>
+      </c>
+      <c r="P35" t="str">
+        <v/>
+      </c>
+      <c r="Q35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>224</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Q1No</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Q1No</v>
+      </c>
+      <c r="E36" t="str">
+        <v>float</v>
+      </c>
+      <c r="F36" t="str">
+        <v>master</v>
+      </c>
+      <c r="G36" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H36" t="str">
+        <v/>
+      </c>
+      <c r="I36" t="str">
+        <v/>
+      </c>
+      <c r="J36" t="str">
+        <v/>
+      </c>
+      <c r="K36" t="str">
+        <v/>
+      </c>
+      <c r="L36" t="str">
+        <v/>
+      </c>
+      <c r="M36" t="str">
+        <v/>
+      </c>
+      <c r="N36" t="str">
+        <v/>
+      </c>
+      <c r="O36" t="str">
+        <v/>
+      </c>
+      <c r="P36" t="str">
+        <v/>
+      </c>
+      <c r="Q36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>225</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Q2</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Q2</v>
+      </c>
+      <c r="E37" t="str">
+        <v>char</v>
+      </c>
+      <c r="F37" t="str">
+        <v>master</v>
+      </c>
+      <c r="G37" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H37" t="str">
+        <v/>
+      </c>
+      <c r="I37" t="str">
+        <v/>
+      </c>
+      <c r="J37" t="str">
+        <v/>
+      </c>
+      <c r="K37" t="str">
+        <v/>
+      </c>
+      <c r="L37" t="str">
+        <v/>
+      </c>
+      <c r="M37" t="str">
+        <v/>
+      </c>
+      <c r="N37" t="str">
+        <v/>
+      </c>
+      <c r="O37" t="str">
+        <v/>
+      </c>
+      <c r="P37" t="str">
+        <v/>
+      </c>
+      <c r="Q37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>226</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="str">
+        <v>UBT</v>
+      </c>
+      <c r="D38" t="str">
+        <v>UBT</v>
+      </c>
+      <c r="E38" t="str">
+        <v>char</v>
+      </c>
+      <c r="F38" t="str">
+        <v>master</v>
+      </c>
+      <c r="G38" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H38" t="str">
+        <v/>
+      </c>
+      <c r="I38" t="str">
+        <v/>
+      </c>
+      <c r="J38" t="str">
+        <v/>
+      </c>
+      <c r="K38" t="str">
+        <v/>
+      </c>
+      <c r="L38" t="str">
+        <v/>
+      </c>
+      <c r="M38" t="str">
+        <v/>
+      </c>
+      <c r="N38" t="str">
+        <v/>
+      </c>
+      <c r="O38" t="str">
+        <v/>
+      </c>
+      <c r="P38" t="str">
+        <v/>
+      </c>
+      <c r="Q38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>227</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="str">
+        <v>UBT_No</v>
+      </c>
+      <c r="D39" t="str">
+        <v>UBT_No</v>
+      </c>
+      <c r="E39" t="str">
+        <v>float</v>
+      </c>
+      <c r="F39" t="str">
+        <v>master</v>
+      </c>
+      <c r="G39" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H39" t="str">
+        <v/>
+      </c>
+      <c r="I39" t="str">
+        <v/>
+      </c>
+      <c r="J39" t="str">
+        <v/>
+      </c>
+      <c r="K39" t="str">
+        <v/>
+      </c>
+      <c r="L39" t="str">
+        <v/>
+      </c>
+      <c r="M39" t="str">
+        <v/>
+      </c>
+      <c r="N39" t="str">
+        <v/>
+      </c>
+      <c r="O39" t="str">
+        <v/>
+      </c>
+      <c r="P39" t="str">
+        <v/>
+      </c>
+      <c r="Q39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>301</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Account_id</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Account Number</v>
+      </c>
+      <c r="E40" t="str">
+        <v>many2one</v>
+      </c>
+      <c r="F40" t="str">
+        <v>actual</v>
+      </c>
+      <c r="G40" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H40" t="str">
+        <v>master</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>201</v>
+      </c>
+      <c r="K40" t="str">
+        <v>00000003-0002-0000-0000-000000000201</v>
+      </c>
+      <c r="L40" t="str">
+        <v>Unique transaction row identifier</v>
+      </c>
+      <c r="M40" t="str">
+        <v>1-999999</v>
+      </c>
+      <c r="N40" t="str">
+        <v>Auto-increment integer</v>
+      </c>
+      <c r="O40" t="str">
+        <v/>
+      </c>
+      <c r="P40" t="str">
+        <v>Must be unique, not null</v>
+      </c>
+      <c r="Q40" t="str">
+        <v>Row identifier only. Not meaningful for analysis.</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>302</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Account Name</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Account Name</v>
+      </c>
+      <c r="E41" t="str">
+        <v>char</v>
+      </c>
+      <c r="F41" t="str">
+        <v>actual</v>
+      </c>
+      <c r="G41" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="L41" t="str">
+        <v>Foreign key to master.id (GL account)</v>
+      </c>
+      <c r="M41" t="str">
+        <v>Valid master.id values</v>
+      </c>
+      <c r="N41" t="str">
+        <v>5-digit integer</v>
+      </c>
+      <c r="O41" t="str">
+        <v/>
+      </c>
+      <c r="P41" t="str">
+        <v>Must exist in master.id</v>
+      </c>
+      <c r="Q41" t="str">
+        <v>Links to Chart of Accounts. Use graph_traverse to navigate to master.</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>303</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Month</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Month</v>
+      </c>
+      <c r="E42" t="str">
+        <v>date</v>
+      </c>
+      <c r="F42" t="str">
+        <v>actual</v>
+      </c>
+      <c r="G42" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H42" t="str">
+        <v/>
+      </c>
+      <c r="I42" t="str">
+        <v/>
+      </c>
+      <c r="J42" t="str">
+        <v/>
+      </c>
+      <c r="K42" t="str">
+        <v/>
+      </c>
+      <c r="L42" t="str">
+        <v/>
+      </c>
+      <c r="M42" t="str">
+        <v/>
+      </c>
+      <c r="N42" t="str">
+        <v/>
+      </c>
+      <c r="O42" t="str">
+        <v/>
+      </c>
+      <c r="P42" t="str">
+        <v/>
+      </c>
+      <c r="Q42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>304</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Entity</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Entity</v>
+      </c>
+      <c r="E43" t="str">
+        <v>char</v>
+      </c>
+      <c r="F43" t="str">
+        <v>actual</v>
+      </c>
+      <c r="G43" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="L43" t="str">
+        <v>Accounting period (first day of month)</v>
+      </c>
+      <c r="M43" t="str">
+        <v>44562-46023</v>
+      </c>
+      <c r="N43" t="str">
+        <v>Excel serial date</v>
+      </c>
+      <c r="O43" t="str">
+        <v>JS Date: new Date((serial - 25569) * 86400 * 1000)</v>
+      </c>
+      <c r="P43" t="str">
+        <v>Must be valid Excel date</v>
+      </c>
+      <c r="Q43" t="str">
+        <v>CRITICAL: Convert before displaying! 44562=Jul 2021, 45658=Jan 2025. FY2025=45474-45838.</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>305</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Classification</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Classification</v>
+      </c>
+      <c r="E44" t="str">
+        <v>char</v>
+      </c>
+      <c r="F44" t="str">
+        <v>actual</v>
+      </c>
+      <c r="G44" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="L44" t="str">
+        <v>Business segment for this transaction</v>
+      </c>
+      <c r="M44" t="str">
+        <v>Product|Installation|Freight|Other</v>
+      </c>
+      <c r="N44" t="str">
+        <v>Text</v>
+      </c>
+      <c r="O44" t="str">
+        <v/>
+      </c>
+      <c r="P44" t="str">
+        <v/>
+      </c>
+      <c r="Q44" t="str">
+        <v>Same segments as master. Use for segment P&amp;L analysis.</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>306</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Master[EBITA]</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Master[EBITA]</v>
+      </c>
+      <c r="E45" t="str">
+        <v>char</v>
+      </c>
+      <c r="F45" t="str">
+        <v>actual</v>
+      </c>
+      <c r="G45" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="L45" t="str">
+        <v>Account classification code</v>
+      </c>
+      <c r="M45" t="str">
+        <v>Various codes</v>
+      </c>
+      <c r="N45" t="str">
+        <v>Text code</v>
+      </c>
+      <c r="O45" t="str">
+        <v/>
+      </c>
+      <c r="P45" t="str">
+        <v/>
+      </c>
+      <c r="Q45" t="str">
+        <v>Short classification code. Use F1 from master for standard grouping.</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>307</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="str">
+        <v>id</v>
+      </c>
+      <c r="D46" t="str">
+        <v>id</v>
+      </c>
+      <c r="E46" t="str">
+        <v>integer</v>
+      </c>
+      <c r="F46" t="str">
+        <v>actual</v>
+      </c>
+      <c r="G46" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H46" t="str">
+        <v/>
+      </c>
+      <c r="I46" t="str">
+        <v/>
+      </c>
+      <c r="J46" t="str">
+        <v/>
+      </c>
+      <c r="K46" t="str">
+        <v/>
+      </c>
+      <c r="L46" t="str">
+        <v/>
+      </c>
+      <c r="M46" t="str">
+        <v/>
+      </c>
+      <c r="N46" t="str">
+        <v/>
+      </c>
+      <c r="O46" t="str">
+        <v/>
+      </c>
+      <c r="P46" t="str">
+        <v/>
+      </c>
+      <c r="Q46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>308</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Amount</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Amount</v>
+      </c>
+      <c r="E47" t="str">
+        <v>float</v>
+      </c>
+      <c r="F47" t="str">
+        <v>actual</v>
+      </c>
+      <c r="G47" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="L47" t="str">
+        <v>Net transaction amount for the period</v>
+      </c>
+      <c r="M47" t="str">
+        <v>Any decimal</v>
+      </c>
+      <c r="N47" t="str">
+        <v>Decimal (AUD)</v>
+      </c>
+      <c r="O47" t="str">
+        <v/>
+      </c>
+      <c r="P47" t="str">
+        <v>Numeric</v>
+      </c>
+      <c r="Q47" t="str">
+        <v>Positive=debit, negative=credit. SUM for totals. All values in AUD.</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B48" t="str">
+        <v/>
+      </c>
+      <c r="C48" t="str">
+        <v/>
+      </c>
+      <c r="D48" t="str">
+        <v/>
+      </c>
+      <c r="E48" t="str">
+        <v/>
+      </c>
+      <c r="F48" t="str">
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <v/>
+      </c>
+      <c r="H48" t="str">
+        <v/>
+      </c>
+      <c r="I48" t="str">
+        <v/>
+      </c>
+      <c r="J48" t="str">
+        <v/>
+      </c>
+      <c r="K48" t="str">
+        <v/>
+      </c>
+      <c r="L48" t="str">
+        <v/>
+      </c>
+      <c r="M48" t="str">
+        <v/>
+      </c>
+      <c r="N48" t="str">
+        <v/>
+      </c>
+      <c r="O48" t="str">
+        <v/>
+      </c>
+      <c r="P48" t="str">
+        <v/>
+      </c>
+      <c r="Q48" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N20"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:W48"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Config_Key</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Config_Value</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Config_Category</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Description</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Applies_To</v>
+      </c>
+      <c r="F1" t="str">
+        <v>LLM_Instruction</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Last_Updated</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>COMPANY_NAME</v>
+      </c>
+      <c r="B2" t="str">
+        <v>DuraCube (The Almar Group)</v>
+      </c>
+      <c r="C2" t="str">
+        <v>operational</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Legal entity name</v>
+      </c>
+      <c r="E2" t="str">
+        <v>all</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Use this name when referencing the company in reports or analysis</v>
+      </c>
+      <c r="G2" t="str">
+        <v>2025-01-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>INDUSTRY</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Manufacturing - Commercial Toilet Partitions</v>
+      </c>
+      <c r="C3" t="str">
+        <v>operational</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Industry classification</v>
+      </c>
+      <c r="E3" t="str">
+        <v>all</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Context for understanding revenue patterns and cost structures</v>
+      </c>
+      <c r="G3" t="str">
+        <v>2025-01-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>BUSINESS_UNIT</v>
+      </c>
+      <c r="B4" t="str">
+        <v>DuraCube Division</v>
+      </c>
+      <c r="C4" t="str">
+        <v>operational</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Division within The Almar Group</v>
+      </c>
+      <c r="E4" t="str">
+        <v>all</v>
+      </c>
+      <c r="F4" t="str">
+        <v>This is one division of a larger group</v>
+      </c>
+      <c r="G4" t="str">
+        <v>2025-01-07</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>PRIMARY_USERS</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Finance Team, Management</v>
+      </c>
+      <c r="C5" t="str">
+        <v>operational</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Primary user groups</v>
+      </c>
+      <c r="E5" t="str">
+        <v>all</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Tailor explanations for finance and management audiences</v>
+      </c>
+      <c r="G5" t="str">
+        <v>2025-01-07</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>BUSINESS_PURPOSE</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Financial reporting and analysis</v>
+      </c>
+      <c r="C6" t="str">
+        <v>operational</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Purpose of this data sync</v>
+      </c>
+      <c r="E6" t="str">
+        <v>all</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Focus on financial accuracy and auditability</v>
+      </c>
+      <c r="G6" t="str">
+        <v>2025-01-07</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>FISCAL_YEAR_START</v>
+      </c>
+      <c r="B7" t="str">
+        <v>2024-07-01</v>
+      </c>
+      <c r="C7" t="str">
+        <v>financial</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Australian fiscal year start (July 1)</v>
+      </c>
+      <c r="E7" t="str">
+        <v>actual</v>
+      </c>
+      <c r="F7" t="str">
+        <v>FY2025 starts July 1, 2024. Use for period calculations.</v>
+      </c>
+      <c r="G7" t="str">
+        <v>2025-01-07</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>FISCAL_YEAR_END</v>
+      </c>
+      <c r="B8" t="str">
+        <v>2025-06-30</v>
+      </c>
+      <c r="C8" t="str">
+        <v>financial</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Australian fiscal year end (June 30)</v>
+      </c>
+      <c r="E8" t="str">
+        <v>actual</v>
+      </c>
+      <c r="F8" t="str">
+        <v>FY2025 ends June 30, 2025. Use for YTD calculations.</v>
+      </c>
+      <c r="G8" t="str">
+        <v>2025-01-07</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>DEFAULT_CURRENCY</v>
+      </c>
+      <c r="B9" t="str">
+        <v>AUD</v>
+      </c>
+      <c r="C9" t="str">
+        <v>financial</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Australian Dollars</v>
+      </c>
+      <c r="E9" t="str">
+        <v>all</v>
+      </c>
+      <c r="F9" t="str">
+        <v>All amounts are in AUD. No currency conversion needed.</v>
+      </c>
+      <c r="G9" t="str">
+        <v>2025-01-07</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>DATE_FORMAT</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Excel Serial</v>
+      </c>
+      <c r="C10" t="str">
+        <v>financial</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Dates stored as Excel serial numbers</v>
+      </c>
+      <c r="E10" t="str">
+        <v>actual</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Month field uses Excel serial dates (e.g., 45658 = Jan 1, 2025). Convert for display.</v>
+      </c>
+      <c r="G10" t="str">
+        <v>2025-01-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>SYNCED_MODELS</v>
+      </c>
+      <c r="B11" t="str">
+        <v>master,actual</v>
+      </c>
+      <c r="C11" t="str">
+        <v>technical</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Models synced to Qdrant</v>
+      </c>
+      <c r="E11" t="str">
+        <v>all</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Only master and actual are available. schema is for metadata only.</v>
+      </c>
+      <c r="G11" t="str">
+        <v>2025-01-07</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>PAYLOAD_ENABLED_MODELS</v>
+      </c>
+      <c r="B12" t="str">
+        <v>master,actual,country</v>
+      </c>
+      <c r="C12" t="str">
+        <v>technical</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Models with nexsus_search support</v>
+      </c>
+      <c r="E12" t="str">
+        <v>nexsus_search</v>
+      </c>
+      <c r="F12" t="str">
+        <v>All synced models support nexsus_search with payload fields.</v>
+      </c>
+      <c r="G12" t="str">
+        <v>2025-01-07</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>DEFAULT_QUERY_LIMIT</v>
+      </c>
+      <c r="B13" t="str">
+        <v>100</v>
+      </c>
+      <c r="C13" t="str">
+        <v>technical</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Default record limit</v>
+      </c>
+      <c r="E13" t="str">
+        <v>nexsus_search</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Return max 100 records by default to prevent overwhelming results</v>
+      </c>
+      <c r="G13" t="str">
+        <v>2025-01-07</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>EMBEDDING_MODEL</v>
+      </c>
+      <c r="B14" t="str">
+        <v>voyage-3.5-lite</v>
+      </c>
+      <c r="C14" t="str">
+        <v>technical</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Voyage AI embedding model</v>
+      </c>
+      <c r="E14" t="str">
+        <v>all</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Technical detail - not relevant for query building</v>
+      </c>
+      <c r="G14" t="str">
+        <v>2025-01-07</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>VECTOR_COLLECTION</v>
+      </c>
+      <c r="B15" t="str">
+        <v>nexsus1_unified</v>
+      </c>
+      <c r="C15" t="str">
+        <v>technical</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Qdrant collection name</v>
+      </c>
+      <c r="E15" t="str">
+        <v>all</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Technical detail - not relevant for query building</v>
+      </c>
+      <c r="G15" t="str">
+        <v>2025-01-07</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>LIMITATION_DATES_SERIAL</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Month field uses Excel serial dates</v>
+      </c>
+      <c r="C16" t="str">
+        <v>limitation</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Dates need conversion for display</v>
+      </c>
+      <c r="E16" t="str">
+        <v>actual</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Always convert Month values before showing to user. Use formula: date = (serial - 25569) * 86400 * 1000 for JS Date.</v>
+      </c>
+      <c r="G16" t="str">
+        <v>2025-01-07</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>QUERY_PATTERN_REVENUE</v>
+      </c>
+      <c r="B17" t="str">
+        <v>F1 = "REV"</v>
+      </c>
+      <c r="C17" t="str">
+        <v>query</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Filter for revenue accounts</v>
+      </c>
+      <c r="E17" t="str">
+        <v>master</v>
+      </c>
+      <c r="F17" t="str">
+        <v>To find revenue accounts, filter on F1="REV" in master model</v>
+      </c>
+      <c r="G17" t="str">
+        <v>2025-01-07</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>QUERY_PATTERN_EXPENSES</v>
+      </c>
+      <c r="B18" t="str">
+        <v>F1 IN ("VCOS", "FCOS", "OH")</v>
+      </c>
+      <c r="C18" t="str">
+        <v>query</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Filter for expense accounts</v>
+      </c>
+      <c r="E18" t="str">
+        <v>master</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Variable costs=VCOS, Fixed costs=FCOS, Overheads=OH</v>
+      </c>
+      <c r="G18" t="str">
+        <v>2025-01-07</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>QUERY_PATTERN_ENTITY</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Entity field for segment analysis</v>
+      </c>
+      <c r="C19" t="str">
+        <v>query</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Product, Installation, Freight, Other</v>
+      </c>
+      <c r="E19" t="str">
+        <v>master,actual</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Entity field segments by business line. Use for segment reports.</v>
+      </c>
+      <c r="G19" t="str">
+        <v>2025-01-07</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>AGGREGATION_RULE</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Field_Type in (integer, float, monetary) = SUM/AVG safe</v>
+      </c>
+      <c r="C20" t="str">
+        <v>query</v>
+      </c>
+      <c r="D20" t="str">
+        <v>How to determine aggregation-safe fields</v>
+      </c>
+      <c r="E20" t="str">
+        <v>nexsus_search</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Check Field_Type in schema. integer/float/monetary support SUM/AVG/MIN/MAX. date supports MIN/MAX only. Use getAggregationSafeFields() for programmatic access.</v>
+      </c>
+      <c r="G20" t="str">
+        <v>2025-01-07</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G20"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Model_ID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Model_Name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Business_Name</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Business_Purpose</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Data_Grain</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Record_Count</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Is_Payload_Enabled</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Primary_Use_Cases</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Key_Relationships</v>
+      </c>
+      <c r="J1" t="str">
+        <v>LLM_Query_Guidance</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Known_Issues</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Last_Updated</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>schema</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Field Definitions</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Stores field metadata for all models</v>
+      </c>
+      <c r="E2" t="str">
+        <v>One row per field definition</v>
+      </c>
+      <c r="F2">
+        <v>48</v>
+      </c>
+      <c r="G2" t="str">
+        <v>No</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Schema discovery, field lookups</v>
+      </c>
+      <c r="I2" t="str">
+        <v>None (reference only)</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Use semantic_search with point_type="schema" to find fields. Not queryable with nexsus_search.</v>
+      </c>
+      <c r="K2" t="str">
+        <v>None</v>
+      </c>
+      <c r="L2" t="str">
+        <v>2025-01-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>master</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Chart of Accounts</v>
+      </c>
+      <c r="D3" t="str">
+        <v>GL account master data with classifications and hierarchies</v>
+      </c>
+      <c r="E3" t="str">
+        <v>One row per GL account code</v>
+      </c>
+      <c r="F3">
+        <v>560</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Account lookups, classification mapping, hierarchy navigation</v>
+      </c>
+      <c r="I3" t="str">
+        <v>actual.Account_id -&gt; master.id</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Use nexsus_search for precise lookups. Filter by F1 for P&amp;L grouping (REV, VCOS, FCOS, OH). Use Entity for segment analysis.</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Some DCFL fields are undocumented legacy classifications</v>
+      </c>
+      <c r="L3" t="str">
+        <v>2025-01-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>actual</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Monthly Actuals</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Monthly financial transactions by account and entity</v>
+      </c>
+      <c r="E4" t="str">
+        <v>One row per account/month/entity combination</v>
+      </c>
+      <c r="F4">
+        <v>15000</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Financial analysis, trend analysis, YTD calculations</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Account_id -&gt; master.id</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Use nexsus_search for precise queries. Month is Excel serial date - convert before display. Amount is net (positive=debit).</v>
+      </c>
+      <c r="K4" t="str">
+        <v>Large dataset - use filters when possible. Month needs date conversion.</v>
+      </c>
+      <c r="L4" t="str">
+        <v>2025-01-07</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/samples/Nexsus1_schema.xlsx
+++ b/samples/Nexsus1_schema.xlsx
@@ -8,21 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KasunJ\MCP\Nexsus1\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5568E546-3E8F-43F8-B4F5-0C807B0CE875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46138DBD-BD7E-40B5-A2EC-F723DE52400D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11712" yWindow="12852" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
     <sheet name="Instance_Config" sheetId="2" r:id="rId2"/>
     <sheet name="Model_Metadata" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="241">
   <si>
     <t>Field_ID</t>
   </si>
@@ -375,9 +388,6 @@
     <t>Positive=debit, negative=credit. SUM for totals. All values in AUD.</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Config_Key</t>
   </si>
   <si>
@@ -705,9 +715,6 @@
     <t>Monthly Actuals</t>
   </si>
   <si>
-    <t>Monthly financial transactions by account and entity</t>
-  </si>
-  <si>
     <t>One row per account/month/entity combination</t>
   </si>
   <si>
@@ -723,9 +730,6 @@
     <t>Large dataset - use filters when possible. Month needs date conversion.</t>
   </si>
   <si>
-    <t>00000003-0002-0000-0000-000000000204</t>
-  </si>
-  <si>
     <t>Account_Name</t>
   </si>
   <si>
@@ -742,6 +746,18 @@
   </si>
   <si>
     <t>Qdrant_ID_for_FK</t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>Monthly Budget numbers</t>
+  </si>
+  <si>
+    <t>Monthly budgeted financial transactions by account and entity</t>
+  </si>
+  <si>
+    <t>Monthly actual  financial transactions by account and entity</t>
   </si>
 </sst>
 </file>
@@ -777,8 +793,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1113,18 +1130,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V48"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1147,13 +1164,13 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J1" t="s">
         <v>236</v>
-      </c>
-      <c r="I1" t="s">
-        <v>237</v>
-      </c>
-      <c r="J1" t="s">
-        <v>239</v>
       </c>
       <c r="K1" t="s">
         <v>11</v>
@@ -1192,7 +1209,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -1242,7 +1259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
@@ -1292,7 +1309,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103</v>
       </c>
@@ -1342,7 +1359,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>104</v>
       </c>
@@ -1392,7 +1409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>105</v>
       </c>
@@ -1442,7 +1459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>106</v>
       </c>
@@ -1492,7 +1509,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>107</v>
       </c>
@@ -1542,7 +1559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>108</v>
       </c>
@@ -1550,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -1592,7 +1609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>109</v>
       </c>
@@ -1600,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -1642,7 +1659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>110</v>
       </c>
@@ -1650,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -1692,7 +1709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>111</v>
       </c>
@@ -1700,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -1742,7 +1759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>201</v>
       </c>
@@ -1783,7 +1800,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>202</v>
       </c>
@@ -1824,7 +1841,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>203</v>
       </c>
@@ -1865,7 +1882,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>204</v>
       </c>
@@ -1906,7 +1923,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>205</v>
       </c>
@@ -1947,7 +1964,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>206</v>
       </c>
@@ -1997,7 +2014,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>207</v>
       </c>
@@ -2047,7 +2064,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>208</v>
       </c>
@@ -2097,7 +2114,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>209</v>
       </c>
@@ -2147,7 +2164,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>210</v>
       </c>
@@ -2197,7 +2214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>211</v>
       </c>
@@ -2247,7 +2264,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>212</v>
       </c>
@@ -2288,7 +2305,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>213</v>
       </c>
@@ -2329,7 +2346,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>214</v>
       </c>
@@ -2379,7 +2396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>215</v>
       </c>
@@ -2429,7 +2446,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>216</v>
       </c>
@@ -2479,7 +2496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>217</v>
       </c>
@@ -2529,7 +2546,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>218</v>
       </c>
@@ -2579,7 +2596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>219</v>
       </c>
@@ -2629,7 +2646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>220</v>
       </c>
@@ -2637,7 +2654,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D32" t="s">
         <v>74</v>
@@ -2679,7 +2696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>221</v>
       </c>
@@ -2729,7 +2746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>222</v>
       </c>
@@ -2779,7 +2796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>223</v>
       </c>
@@ -2829,7 +2846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>224</v>
       </c>
@@ -2879,7 +2896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>225</v>
       </c>
@@ -2929,7 +2946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>226</v>
       </c>
@@ -2979,7 +2996,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>227</v>
       </c>
@@ -3029,7 +3046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>301</v>
       </c>
@@ -3079,7 +3096,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>302</v>
       </c>
@@ -3087,7 +3104,7 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D41" t="s">
         <v>91</v>
@@ -3120,7 +3137,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>303</v>
       </c>
@@ -3170,7 +3187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>304</v>
       </c>
@@ -3211,7 +3228,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>305</v>
       </c>
@@ -3225,7 +3242,7 @@
         <v>104</v>
       </c>
       <c r="E44" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="F44" t="s">
         <v>85</v>
@@ -3233,15 +3250,6 @@
       <c r="G44" t="s">
         <v>19</v>
       </c>
-      <c r="H44" t="s">
-        <v>25</v>
-      </c>
-      <c r="I44">
-        <v>2</v>
-      </c>
-      <c r="J44" t="s">
-        <v>233</v>
-      </c>
       <c r="K44" t="s">
         <v>105</v>
       </c>
@@ -3261,7 +3269,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>306</v>
       </c>
@@ -3302,7 +3310,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>307</v>
       </c>
@@ -3352,7 +3360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>308</v>
       </c>
@@ -3393,60 +3401,365 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>117</v>
-      </c>
-      <c r="B48" t="s">
-        <v>20</v>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>401</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="D48" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="E48" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c r="G48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>20</v>
-      </c>
-      <c r="I48" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="K48" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="L48" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="M48" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="N48" t="s">
         <v>20</v>
       </c>
       <c r="O48" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="P48" t="s">
-        <v>20</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>402</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>231</v>
+      </c>
+      <c r="D49" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" t="s">
+        <v>237</v>
+      </c>
+      <c r="G49" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" t="s">
+        <v>92</v>
+      </c>
+      <c r="L49" t="s">
+        <v>93</v>
+      </c>
+      <c r="M49" t="s">
+        <v>28</v>
+      </c>
+      <c r="N49" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" t="s">
+        <v>94</v>
+      </c>
+      <c r="P49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>403</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" t="s">
+        <v>237</v>
+      </c>
+      <c r="G50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" t="s">
+        <v>20</v>
+      </c>
+      <c r="O50" t="s">
+        <v>20</v>
+      </c>
+      <c r="P50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>404</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" t="s">
+        <v>237</v>
+      </c>
+      <c r="G51" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" t="s">
+        <v>98</v>
+      </c>
+      <c r="L51" t="s">
+        <v>99</v>
+      </c>
+      <c r="M51" t="s">
+        <v>100</v>
+      </c>
+      <c r="N51" t="s">
+        <v>101</v>
+      </c>
+      <c r="O51" t="s">
+        <v>102</v>
+      </c>
+      <c r="P51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>405</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" t="s">
+        <v>237</v>
+      </c>
+      <c r="G52" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" t="s">
+        <v>105</v>
+      </c>
+      <c r="L52" t="s">
+        <v>60</v>
+      </c>
+      <c r="M52" t="s">
+        <v>61</v>
+      </c>
+      <c r="N52" t="s">
+        <v>20</v>
+      </c>
+      <c r="O52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>406</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" t="s">
+        <v>237</v>
+      </c>
+      <c r="G53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K53" t="s">
+        <v>107</v>
+      </c>
+      <c r="L53" t="s">
+        <v>108</v>
+      </c>
+      <c r="M53" t="s">
+        <v>109</v>
+      </c>
+      <c r="N53" t="s">
+        <v>20</v>
+      </c>
+      <c r="O53" t="s">
+        <v>20</v>
+      </c>
+      <c r="P53" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>407</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" t="s">
+        <v>237</v>
+      </c>
+      <c r="G54" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s">
+        <v>20</v>
+      </c>
+      <c r="K54" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" t="s">
+        <v>20</v>
+      </c>
+      <c r="N54" t="s">
+        <v>20</v>
+      </c>
+      <c r="O54" t="s">
+        <v>20</v>
+      </c>
+      <c r="P54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>408</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" t="s">
+        <v>53</v>
+      </c>
+      <c r="F55" t="s">
+        <v>237</v>
+      </c>
+      <c r="G55" t="s">
+        <v>19</v>
+      </c>
+      <c r="K55" t="s">
+        <v>112</v>
+      </c>
+      <c r="L55" t="s">
+        <v>113</v>
+      </c>
+      <c r="M55" t="s">
+        <v>114</v>
+      </c>
+      <c r="N55" t="s">
+        <v>20</v>
+      </c>
+      <c r="O55" t="s">
+        <v>115</v>
+      </c>
+      <c r="P55" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:I8 A46:I48 A45:B45 E45:I45 A44:D44 A43:D43 K43:V43 A42:I42 A41:B41 D41:I41 A33:I40 A32:B32 D32:I32 A13:I31 A9:B9 D9:I9 A10:B10 D10:I10 A11:B11 D11:I11 A12:B12 D12:I12 A1:G1 K1:V1 J2:V8 J46:V48 J45:V45 K44:V44 J42:V42 J41:V41 J33:V40 J32:V32 J13:V31 J9:V9 J10:V10 J11:V11 J12:V12 F43:G43 F44:G44" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:I8 A46:I47 A45:B45 E45:I45 A44:D44 A43:D43 K43:V43 A42:I42 A41:B41 D41:I41 A33:I40 A32:B32 D32:I32 A13:I31 A9:B9 D9:I9 A10:B10 D10:I10 A11:B11 D11:I11 A12:B12 D12:I12 A1:G1 K1:V1 J2:V8 J46:V47 J45:V45 K44:V44 J42:V42 J41:V41 J33:V40 J32:V32 J13:V31 J9:V9 J10:V10 J11:V11 J12:V12 F43:G43 F44:G44" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3456,451 +3769,451 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
         <v>118</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>119</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>120</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>121</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>122</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>123</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>125</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>126</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>127</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>128</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>129</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>130</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>132</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" t="s">
         <v>133</v>
       </c>
-      <c r="C3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" t="s">
         <v>134</v>
       </c>
-      <c r="E3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>135</v>
       </c>
-      <c r="G3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>136</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" t="s">
         <v>137</v>
       </c>
-      <c r="C4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" t="s">
         <v>138</v>
       </c>
-      <c r="E4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>139</v>
       </c>
-      <c r="G4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>140</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" t="s">
         <v>141</v>
       </c>
-      <c r="C5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" t="s">
         <v>142</v>
       </c>
-      <c r="E5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>143</v>
       </c>
-      <c r="G5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>144</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" t="s">
         <v>145</v>
       </c>
-      <c r="C6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" t="s">
         <v>146</v>
       </c>
-      <c r="E6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>147</v>
       </c>
-      <c r="G6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>148</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>149</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>150</v>
-      </c>
-      <c r="D7" t="s">
-        <v>151</v>
       </c>
       <c r="E7" t="s">
         <v>85</v>
       </c>
       <c r="F7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>152</v>
       </c>
-      <c r="G7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>153</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" t="s">
         <v>154</v>
-      </c>
-      <c r="C8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" t="s">
-        <v>155</v>
       </c>
       <c r="E8" t="s">
         <v>85</v>
       </c>
       <c r="F8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>156</v>
       </c>
-      <c r="G8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>157</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" t="s">
         <v>158</v>
       </c>
-      <c r="C9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" t="s">
         <v>159</v>
       </c>
-      <c r="E9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>160</v>
       </c>
-      <c r="G9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>161</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" t="s">
         <v>162</v>
-      </c>
-      <c r="C10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" t="s">
-        <v>163</v>
       </c>
       <c r="E10" t="s">
         <v>85</v>
       </c>
       <c r="F10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>164</v>
       </c>
-      <c r="G10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>165</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>166</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>167</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" t="s">
         <v>168</v>
       </c>
-      <c r="E11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>169</v>
       </c>
-      <c r="G11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>170</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" t="s">
         <v>171</v>
       </c>
-      <c r="C12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>172</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>173</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>174</v>
       </c>
-      <c r="G12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>175</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" t="s">
         <v>176</v>
       </c>
-      <c r="C13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" t="s">
         <v>177</v>
       </c>
-      <c r="E13" t="s">
-        <v>173</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>178</v>
       </c>
-      <c r="G13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>179</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" t="s">
         <v>180</v>
       </c>
-      <c r="C14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" t="s">
         <v>181</v>
       </c>
-      <c r="E14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>182</v>
       </c>
-      <c r="G14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>183</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" t="s">
         <v>184</v>
       </c>
-      <c r="C15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>185</v>
       </c>
-      <c r="E15" t="s">
-        <v>129</v>
-      </c>
-      <c r="F15" t="s">
-        <v>182</v>
-      </c>
-      <c r="G15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>186</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>187</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>188</v>
-      </c>
-      <c r="D16" t="s">
-        <v>189</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
       </c>
       <c r="F16" t="s">
+        <v>189</v>
+      </c>
+      <c r="G16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>190</v>
       </c>
-      <c r="G16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>191</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" t="s">
         <v>192</v>
-      </c>
-      <c r="C17" t="s">
-        <v>188</v>
-      </c>
-      <c r="D17" t="s">
-        <v>193</v>
       </c>
       <c r="E17" t="s">
         <v>25</v>
       </c>
       <c r="F17" t="s">
+        <v>193</v>
+      </c>
+      <c r="G17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>194</v>
       </c>
-      <c r="G17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>195</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" t="s">
         <v>196</v>
       </c>
-      <c r="C18" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" t="s">
         <v>197</v>
       </c>
-      <c r="E18" t="s">
-        <v>166</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>198</v>
       </c>
-      <c r="G18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>199</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" t="s">
         <v>200</v>
       </c>
-      <c r="C19" t="s">
-        <v>188</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>172</v>
+      </c>
+      <c r="F19" t="s">
         <v>201</v>
       </c>
-      <c r="E19" t="s">
-        <v>173</v>
-      </c>
-      <c r="F19" t="s">
-        <v>202</v>
-      </c>
       <c r="G19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3913,15 +4226,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3929,37 +4242,37 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" t="s">
         <v>203</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>204</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>205</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>206</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>207</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>208</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>209</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>210</v>
       </c>
-      <c r="K1" t="s">
-        <v>211</v>
-      </c>
       <c r="L1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3967,13 +4280,13 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" t="s">
         <v>212</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>213</v>
-      </c>
-      <c r="E2" t="s">
-        <v>214</v>
       </c>
       <c r="F2">
         <v>48</v>
@@ -3982,22 +4295,22 @@
         <v>19</v>
       </c>
       <c r="H2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I2" t="s">
         <v>215</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>216</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>217</v>
       </c>
-      <c r="K2" t="s">
-        <v>218</v>
-      </c>
       <c r="L2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4005,13 +4318,13 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" t="s">
         <v>219</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>220</v>
-      </c>
-      <c r="E3" t="s">
-        <v>221</v>
       </c>
       <c r="F3">
         <v>560</v>
@@ -4020,22 +4333,22 @@
         <v>19</v>
       </c>
       <c r="H3" t="s">
+        <v>221</v>
+      </c>
+      <c r="I3" t="s">
         <v>222</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>223</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>224</v>
       </c>
-      <c r="K3" t="s">
-        <v>225</v>
-      </c>
       <c r="L3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4043,13 +4356,13 @@
         <v>85</v>
       </c>
       <c r="C4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" t="s">
         <v>226</v>
-      </c>
-      <c r="D4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E4" t="s">
-        <v>228</v>
       </c>
       <c r="F4">
         <v>15000</v>
@@ -4058,25 +4371,63 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I4" t="s">
+        <v>228</v>
+      </c>
+      <c r="J4" t="s">
         <v>229</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>230</v>
       </c>
-      <c r="J4" t="s">
-        <v>231</v>
-      </c>
-      <c r="K4" t="s">
-        <v>232</v>
-      </c>
       <c r="L4" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F5">
+        <v>15000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I5" t="s">
+        <v>228</v>
+      </c>
+      <c r="J5" t="s">
+        <v>229</v>
+      </c>
+      <c r="K5" t="s">
+        <v>230</v>
+      </c>
+      <c r="L5" s="1">
+        <v>45666</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:L1 A3:L4 A2:F2 H2:L2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:L1 A3:L3 A2:F2 H2:L2 A4:C4 E4:L4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>